--- a/server-res/excel/Cfg_UserAttr.xlsx
+++ b/server-res/excel/Cfg_UserAttr.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>attr_data.hp_max</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>attr_data.dodge</t>
-  </si>
-  <si>
-    <t>int32</t>
   </si>
   <si>
     <t>闪避</t>
@@ -96,10 +93,6 @@
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -178,6 +171,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -225,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -487,13 +483,13 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -537,116 +533,116 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>14</v>
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>100</v>
+      </c>
+      <c r="P3" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -658,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -687,16 +683,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -708,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1">
         <v>5</v>
@@ -737,16 +733,16 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -755,7 +751,7 @@
         <v>20000</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>4</v>
@@ -787,13 +783,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -805,7 +801,7 @@
         <v>20000</v>
       </c>
       <c r="G7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>4</v>
@@ -837,66 +833,66 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>200</v>
-      </c>
-      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>20000</v>
       </c>
-      <c r="G8" s="1">
-        <v>3</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1">
-        <v>100</v>
-      </c>
-      <c r="P8" s="1">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>100</v>
+      </c>
+      <c r="P8">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -937,16 +933,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,10 +954,10 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -987,16 +983,16 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1005,7 +1001,7 @@
         <v>20000</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1037,13 +1033,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>200</v>
@@ -1055,7 +1051,7 @@
         <v>20000</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1087,16 +1083,16 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1105,13 +1101,13 @@
         <v>20000</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -1137,16 +1133,16 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1187,16 +1183,16 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,10 +1204,10 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1237,16 +1233,16 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>4</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,7 +1251,7 @@
         <v>20000</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1287,13 +1283,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>200</v>
@@ -1305,7 +1301,7 @@
         <v>20000</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1332,56 +1328,6 @@
         <v>100</v>
       </c>
       <c r="P17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>20000</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>5</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>100</v>
-      </c>
-      <c r="P18">
         <v>20</v>
       </c>
     </row>
